--- a/REGULAR/OJT/CORTEZ, NERIFE.xlsx
+++ b/REGULAR/OJT/CORTEZ, NERIFE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
   <si>
     <t>PERIOD</t>
   </si>
@@ -433,6 +433,15 @@
   </si>
   <si>
     <t>6/26-30/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/26-29/2023</t>
   </si>
 </sst>
 </file>
@@ -2836,7 +2845,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K447" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K449" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3214,12 +3223,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K447"/>
+  <dimension ref="A2:K449"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A292" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="I312" sqref="I312"/>
+      <selection pane="bottomLeft" activeCell="K318" sqref="K318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3382,7 +3391,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>126.75</v>
+        <v>130.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3392,7 +3401,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>300.75</v>
+        <v>307.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9586,13 +9595,15 @@
       <c r="B309" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C309" s="13"/>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H309" s="39">
         <v>3</v>
@@ -9650,13 +9661,15 @@
       <c r="B312" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C312" s="13"/>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G312" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H312" s="39">
         <v>4</v>
@@ -9672,13 +9685,15 @@
         <v>45139</v>
       </c>
       <c r="B313" s="20"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
@@ -9690,13 +9705,15 @@
         <v>45170</v>
       </c>
       <c r="B314" s="20"/>
-      <c r="C314" s="13"/>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
@@ -9708,13 +9725,15 @@
         <v>45200</v>
       </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
@@ -9726,13 +9745,15 @@
         <v>45231</v>
       </c>
       <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
@@ -9743,9 +9764,13 @@
       <c r="A317" s="40">
         <v>45261</v>
       </c>
-      <c r="B317" s="20"/>
+      <c r="B317" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="C317" s="13"/>
-      <c r="D317" s="39"/>
+      <c r="D317" s="39">
+        <v>4</v>
+      </c>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
       <c r="G317" s="13" t="str">
@@ -9755,13 +9780,15 @@
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="20"/>
+      <c r="K317" s="20" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B318" s="20"/>
+      <c r="A318" s="40"/>
+      <c r="B318" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
@@ -9770,14 +9797,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H318" s="39"/>
+      <c r="H318" s="39">
+        <v>1</v>
+      </c>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="20"/>
+      <c r="K318" s="48">
+        <v>45275</v>
+      </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40">
-        <v>45323</v>
+      <c r="A319" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9795,7 +9826,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -9813,7 +9844,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9831,7 +9862,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -9849,7 +9880,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9867,7 +9898,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -9885,7 +9916,7 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9903,7 +9934,7 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -9921,7 +9952,7 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -9939,7 +9970,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -9957,7 +9988,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -9975,7 +10006,7 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -9993,7 +10024,7 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10010,7 +10041,9 @@
       <c r="K331" s="20"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="40"/>
+      <c r="A332" s="40">
+        <v>45658</v>
+      </c>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
       <c r="D332" s="39"/>
@@ -10026,7 +10059,9 @@
       <c r="K332" s="20"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="40"/>
+      <c r="A333" s="40">
+        <v>45689</v>
+      </c>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
       <c r="D333" s="39"/>
@@ -10800,7 +10835,10 @@
       <c r="D381" s="39"/>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
@@ -10813,7 +10851,10 @@
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
@@ -11663,6 +11704,32 @@
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="40"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="39"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13"/>
+      <c r="H448" s="39"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="40"/>
+      <c r="B449" s="20"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="39"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="13"/>
+      <c r="H449" s="39"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
